--- a/data/trans_dic/P16B06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,65%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>79,42; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>86,14; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>89,29; 98,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>94,86; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>90,82; 97,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>89,29; 97,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>96,03; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>91,58; 97,95</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,75%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>70,59; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>87,52; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>79,09; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>80,52; 97,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>92,72; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>93,15; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>82,01; 96,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>94,27; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>92,43; 99,15</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,99%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>19,59; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>37,02; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>50,93; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>69,08; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>62,44; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>59,69; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>78,08; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,84%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>80,31; 95,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>91,53; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>89,36; 98,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>90,78; 98,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>94,48; 99,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>92,75; 97,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>89,02; 96,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>95,23; 99,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>93,44; 97,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,42; 100,0</t>
+          <t>79,32; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +696,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,14; 100,0</t>
+          <t>86,98; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89,29; 98,99</t>
+          <t>89,41; 98,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,86; 100,0</t>
+          <t>94,7; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,82; 97,97</t>
+          <t>91,0; 98,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,29; 97,92</t>
+          <t>89,92; 97,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>96,03; 100,0</t>
+          <t>95,46; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,58; 97,95</t>
+          <t>91,97; 97,98</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,59; 100,0</t>
+          <t>66,9; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,52; 100,0</t>
+          <t>86,1; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,09; 100,0</t>
+          <t>79,4; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,52; 97,8</t>
+          <t>79,38; 97,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,72; 100,0</t>
+          <t>93,32; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,15; 100,0</t>
+          <t>93,32; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,01; 96,87</t>
+          <t>83,32; 96,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,27; 100,0</t>
+          <t>94,81; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,43; 99,15</t>
+          <t>91,83; 99,14</t>
         </is>
       </c>
     </row>
@@ -905,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,59; 100,0</t>
+          <t>19,31; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,02; 100,0</t>
+          <t>21,97; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -925,27 +926,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,93; 100,0</t>
+          <t>47,14; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,08; 100,0</t>
+          <t>66,24; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,44; 100,0</t>
+          <t>63,27; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,69; 100,0</t>
+          <t>59,57; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,08; 100,0</t>
+          <t>75,68; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,31; 95,91</t>
+          <t>79,76; 96,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,53; 100,0</t>
+          <t>91,5; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,36; 98,89</t>
+          <t>89,28; 98,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,78; 98,07</t>
+          <t>90,59; 97,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,48; 99,52</t>
+          <t>94,61; 99,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,75; 97,88</t>
+          <t>92,92; 98,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,02; 96,32</t>
+          <t>89,43; 96,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,23; 99,07</t>
+          <t>95,35; 99,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,44; 97,8</t>
+          <t>93,22; 97,64</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas pastillas para dormir fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>36337</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25770</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>41033</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>88739</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>131855</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>141401</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>125076</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>157625</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>182434</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30826; 38862</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23727; 25770</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>37263; 42842</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>82928; 91418</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>126824; 133915</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>134580; 145627</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>118343; 128917</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>152431; 159685</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>175404; 186867</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18550</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33143</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30613</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36295</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>73563</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>94134</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54844</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>106706</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>124748</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13661; 20418</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29269; 33993</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26008; 32755</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31150; 38371</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>69546; 74526</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>89749; 96179</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49709; 57839</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>102888; 108519</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>118394; 127822</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6432</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10310</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8680</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10694</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16790</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12595</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17126</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27100</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1090; 5644</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1618; 7362</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8378; 10310</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6879; 8680</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5812; 12328</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12474; 18833</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9062; 14324</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11730; 19690</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22057; 29143</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>58801</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65346</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>81957</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>133714</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>216113</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>252327</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>192515</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>281458</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>334283</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>51785; 62435</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>61418; 67125</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>76695; 84902</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>127439; 137815</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>208868; 219155</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>244283; 257829</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>183870; 198641</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>274521; 285196</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>325140; 340577</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>